--- a/model/riskMatrixReport/test.xlsx
+++ b/model/riskMatrixReport/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>System 1</t>
   </si>
@@ -116,10 +116,10 @@
     <t>Analyst</t>
   </si>
   <si>
-    <t>5fb67ce9f73a0000c7004e25</t>
-  </si>
-  <si>
-    <t>Host1</t>
+    <t>5fb67ce9f73a0000c7004e26</t>
+  </si>
+  <si>
+    <t>Host2</t>
   </si>
   <si>
     <t>127.19.12.2:80</t>
@@ -128,19 +128,58 @@
     <t>Creds</t>
   </si>
   <si>
-    <t>Task 1</t>
+    <t>This is a test description</t>
+  </si>
+  <si>
+    <t>This is a test long description</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Outsider</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>This is a test brief description</t>
+  </si>
+  <si>
+    <t>Tim Honks</t>
+  </si>
+  <si>
+    <t>5fb67ce9f73a0000c7004e27</t>
+  </si>
+  <si>
+    <t>Host3</t>
+  </si>
+  <si>
+    <t>Task 3</t>
   </si>
   <si>
     <t>Nearsider</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>Julio Hernandez</t>
+  </si>
+  <si>
+    <t>5fb67ce9f73a0000c7004e28</t>
+  </si>
+  <si>
+    <t>Host4</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Wim Bonks</t>
   </si>
 </sst>
 </file>
@@ -527,7 +566,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H7" sqref="H7"/>
@@ -538,6 +577,7 @@
     <col min="6" max="6" width="24" customWidth="true" style="0"/>
     <col min="7" max="7" width="24" customWidth="true" style="0"/>
     <col min="8" max="8" width="24" customWidth="true" style="0"/>
+    <col min="3" max="3" width="26" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -672,32 +712,34 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10"/>
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
         <v>19</v>
@@ -733,13 +775,185 @@
         <v>29</v>
       </c>
       <c r="AB10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AD10" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
